--- a/HW3_Graphs.xlsx
+++ b/HW3_Graphs.xlsx
@@ -212,7 +212,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,8 +236,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,11 +275,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -287,6 +288,8 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -298,6 +301,8 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,21 +366,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$13</c:f>
+              <c:f>Sheet1!$C$11:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3055E6</c:v>
+                  <c:v>7.991511E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.640565E6</c:v>
+                  <c:v>1.8331E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.053912E6</c:v>
+                  <c:v>1.6019E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.740648E6</c:v>
+                  <c:v>1.587141E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.567141E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,21 +398,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$6</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2605E6</c:v>
+                  <c:v>1.55335E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.13247E6</c:v>
+                  <c:v>8.552E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757686.0</c:v>
+                  <c:v>7.601E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>650133.0</c:v>
+                  <c:v>6.63E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3755E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,11 +432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077117832"/>
-        <c:axId val="2077113112"/>
+        <c:axId val="2125241448"/>
+        <c:axId val="2125248312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077117832"/>
+        <c:axId val="2125241448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077113112"/>
+        <c:crossAx val="2125248312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -461,7 +472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077113112"/>
+        <c:axId val="2125248312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077117832"/>
+        <c:crossAx val="2125241448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -606,21 +617,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$G$13</c:f>
+              <c:f>Sheet1!$G$11:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.287E6</c:v>
+                  <c:v>8.981511E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.662981E6</c:v>
+                  <c:v>2.1054718E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.148984E6</c:v>
+                  <c:v>1.5223773E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.821222E6</c:v>
+                  <c:v>1.844022E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.221222E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,21 +649,24 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.204E6</c:v>
+                  <c:v>1.65515E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.545545E6</c:v>
+                  <c:v>1.5258E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.526741E6</c:v>
+                  <c:v>1.4522E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4115E6</c:v>
+                  <c:v>1.21685E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.212E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,11 +683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2078985496"/>
-        <c:axId val="2078323992"/>
+        <c:axId val="2125319176"/>
+        <c:axId val="2125324968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078985496"/>
+        <c:axId val="2125319176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078323992"/>
+        <c:crossAx val="2125324968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078323992"/>
+        <c:axId val="2125324968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078985496"/>
+        <c:crossAx val="2125319176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -829,15 +846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -859,15 +876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1211,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1273,19 +1290,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>1182500</v>
+        <v>15533500</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>1260500</v>
+        <v>15745000</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1204000</v>
+        <v>16551500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1294,248 +1311,237 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>591348</v>
+        <v>8552000</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
       </c>
       <c r="E4" s="10">
-        <v>1132470</v>
+        <v>11570500</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4" s="10">
-        <v>1545545</v>
+        <v>15258000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7601000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8473000</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>14522000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6630000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7201000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10">
+        <v>12168500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" thickBot="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>6375500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7690500</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12">
+        <v>12120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" thickTop="1" thickBot="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" thickTop="1" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" thickTop="1" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
-        <v>529772</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
-        <v>757686</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="F10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1526741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" thickBot="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>479785</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12">
-        <v>650133</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1411500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" thickTop="1" thickBot="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" thickTop="1" thickBot="1">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" thickTop="1" thickBot="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1289500</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1305500</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1287000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>1268567</v>
+        <v>7991511</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>1640565</v>
+        <v>20916000</v>
       </c>
       <c r="F11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10">
-        <v>1662981</v>
+        <v>8981511</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1546026</v>
+        <v>18331000</v>
       </c>
       <c r="D12" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
-        <v>2053912</v>
+        <v>20919376</v>
       </c>
       <c r="F12" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="10">
-        <v>2148984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" thickBot="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11">
+        <v>21054718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
-        <v>1314927</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="10">
+        <v>16019000</v>
+      </c>
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
-        <v>1740648</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="10">
+        <v>11190519</v>
+      </c>
+      <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="G13" s="12">
-        <v>1821222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" thickTop="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
+      <c r="G13" s="10">
+        <v>15223773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1587141</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4565885</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1844022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" thickBot="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1567141</v>
+      </c>
+      <c r="D15" s="11">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3869835</v>
+      </c>
+      <c r="F15" s="11">
+        <v>8</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1221222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" thickTop="1"/>
     <row r="20" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
@@ -1601,21 +1607,39 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2"/>

--- a/HW3_Graphs.xlsx
+++ b/HW3_Graphs.xlsx
@@ -212,8 +212,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -276,7 +278,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -290,6 +292,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +306,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,11 +436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125241448"/>
-        <c:axId val="2125248312"/>
+        <c:axId val="2038727352"/>
+        <c:axId val="2065387832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125241448"/>
+        <c:axId val="2038727352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125248312"/>
+        <c:crossAx val="2065387832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,7 +476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125248312"/>
+        <c:axId val="2065387832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125241448"/>
+        <c:crossAx val="2038727352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -683,11 +687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125319176"/>
-        <c:axId val="2125324968"/>
+        <c:axId val="2066308888"/>
+        <c:axId val="2066314680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125319176"/>
+        <c:axId val="2066308888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125324968"/>
+        <c:crossAx val="2066314680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125324968"/>
+        <c:axId val="2066314680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125319176"/>
+        <c:crossAx val="2066308888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
